--- a/docs/spritedesigner.xlsx
+++ b/docs/spritedesigner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmanicardi/Documents/personal-projects/tok64/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmanicardi/Documents/personal-projects/ouas2019/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F802C2A-A51F-614B-BCE4-8C1D61036E22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9A37D7-1232-6B4E-A2FC-28C09B33537E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="6600" windowWidth="28040" windowHeight="17040" xr2:uid="{68BE5E86-1131-2C47-8C3D-86D7B7785D1A}"/>
+    <workbookView xWindow="2420" yWindow="2660" windowWidth="28040" windowHeight="15320" xr2:uid="{68BE5E86-1131-2C47-8C3D-86D7B7785D1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D236987D-C09D-9F4A-88B0-C718EB7B742C}">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -402,7 +398,7 @@
     <col min="24" max="24" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -475,8 +471,1855 @@
       <c r="X1" s="2">
         <v>0</v>
       </c>
+      <c r="Y1">
+        <f>H1*2^0+G1*2^1+F1*2^2+E1*2^3+D1*2^4+C1*2^5+B1*2^6+A1*2^7</f>
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <f>P1*2^0+O1*2^1+N1*2^2+M1*2^3+L1*2^4+K1*2^5+J1*2^6+I1*2^7</f>
+        <v>0</v>
+      </c>
+      <c r="AA1" s="2">
+        <f>X1*2^0+W1*2^1+V1*2^2+U1*2^3+T1*2^4+S1*2^5+R1*2^6+Q1*2^7</f>
+        <v>0</v>
+      </c>
+      <c r="AB1" t="str">
+        <f>CONCATENATE(Y1,",",Z1,",",AA1)</f>
+        <v>0,0,0</v>
+      </c>
+      <c r="AC1" t="str">
+        <f>CONCATENATE(AB1,",",AB2,",",AB3,",",AB4,",",AB5,",",AB6,",",AB7)</f>
+        <v>0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>H2*2^0+G2*2^1+F2*2^2+E2*2^3+D2*2^4+C2*2^5+B2*2^6+A2*2^7</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>P2*2^0+O2*2^1+N2*2^2+M2*2^3+L2*2^4+K2*2^5+J2*2^6+I2*2^7</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>X2*2^0+W2*2^1+V2*2^2+U2*2^3+T2*2^4+S2*2^5+R2*2^6+Q2*2^7</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" t="str">
+        <f t="shared" ref="AB2:AB21" si="0">CONCATENATE(Y2,",",Z2,",",AA2)</f>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y21" si="1">H3*2^0+G3*2^1+F3*2^2+E3*2^3+D3*2^4+C3*2^5+B3*2^6+A3*2^7</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z21" si="2">P3*2^0+O3*2^1+N3*2^2+M3*2^3+L3*2^4+K3*2^5+J3*2^6+I3*2^7</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <f t="shared" ref="AA3:AA21" si="3">X3*2^0+W3*2^1+V3*2^2+U3*2^3+T3*2^4+S3*2^5+R3*2^6+Q3*2^7</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+      <c r="AC8" t="str">
+        <f>CONCATENATE(AB8,",",AB9,",",AB10,",",AB11,",",AB12,",",AB13,",",AB14)</f>
+        <v>0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+      <c r="AC15" t="str">
+        <f>CONCATENATE(AB15,",",AB16,",",AB17,",",AB18,",",AB19,",",AB20,",",AB21,",")</f>
+        <v>0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA22" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:X21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:X21" xr:uid="{01C669D7-3CF5-B048-AEBA-38973841CFD3}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>